--- a/bom.xlsx
+++ b/bom.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="220">
-  <si>
-    <t>Tad Boy Color BOM for board revisions X4 and X5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
+  <si>
+    <t>Tad Boy Color BOM for board revisions X4 and X5, Revised 7/11/2024</t>
   </si>
   <si>
     <t>Designator(s)</t>
@@ -37,6 +37,15 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Part#</t>
+  </si>
+  <si>
+    <t>Mouser?</t>
+  </si>
+  <si>
+    <t>DigiKey?</t>
+  </si>
+  <si>
     <t>C14,C13</t>
   </si>
   <si>
@@ -46,13 +55,16 @@
     <t>0603</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>C19</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2,C28</t>
   </si>
   <si>
     <t>22pF</t>
@@ -88,7 +100,7 @@
     <t>0.22uF</t>
   </si>
   <si>
-    <t>C28,C6,C3,C4</t>
+    <t>C6,C3,C4</t>
   </si>
   <si>
     <t>100pF</t>
@@ -388,222 +400,228 @@
     <t>Joy Con battery</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Speaker</t>
   </si>
   <si>
+    <t>CMS-151135-18S-X8</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>802040</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-0603YC105KAT2A</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-TLJA107M10R1400</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035A180J</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-AC0603X7R9BB224</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035C220JAT2A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-0603YC101KAT2A</t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035A270J</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</t>
+  </si>
+  <si>
+    <t>FBx4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/81-BLA3216A601SG4</t>
+  </si>
+  <si>
+    <t>62684-502100ALF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/649-62684-502100ALF</t>
+  </si>
+  <si>
+    <t>JST PH 2-pin</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/640-USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>SJ2-3593D-SMT-TR</t>
+  </si>
+  <si>
+    <t>SJ23593DSMTTR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/490-SJ2-3593D-SMT-TR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.1K-E3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0603-FX-1502ELF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
+  </si>
+  <si>
+    <t>CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
+  </si>
+  <si>
+    <t>MCP1700T-3302E/TT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
+  </si>
+  <si>
+    <t>8.388608MHz</t>
+  </si>
+  <si>
+    <t>5x7Crystal</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256805403138830.html</t>
+  </si>
+  <si>
+    <t>OWS-111535LA-8H</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ole-wolff-electronics-inc/OWS-111535LA-8H/17634911</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT</t>
+  </si>
+  <si>
     <t>CMS-151135-078S-67</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>802040</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-0603YC105KAT2A</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-TLJA107M10R1400</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035A180J</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-AC0603X7R9BB224</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035C220JAT2A</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-0603YC101KAT2A</t>
-  </si>
-  <si>
-    <t>27pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035A270J</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</t>
-  </si>
-  <si>
-    <t>FBx4</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/81-BLA3216A601SG4</t>
-  </si>
-  <si>
-    <t>62684-502100ALF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/649-62684-502100ALF</t>
-  </si>
-  <si>
-    <t>JST PH 2-pin</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/640-USB4105-GF-A</t>
-  </si>
-  <si>
-    <t>SJ2-3593D-SMT-TR</t>
-  </si>
-  <si>
-    <t>SJ23593DSMTTR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/490-SJ2-3593D-SMT-TR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.1K-E3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Bourns/CR0603-FX-1502ELF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t>1.5M</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
-  </si>
-  <si>
-    <t>CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E/TT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
-  </si>
-  <si>
-    <t>8.388608MHz</t>
-  </si>
-  <si>
-    <t>5x7Crystal</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.us/item/3256805403138830.html</t>
-  </si>
-  <si>
-    <t>OWS-111535LA-8H</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/ole-wolff-electronics-inc/OWS-111535LA-8H/17634911</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/cui-devices/CMS-151135-078S-67/9561104</t>
   </si>
   <si>
@@ -674,6 +692,9 @@
   </si>
   <si>
     <t>https://www.ifixit.com/products/nintendo-switch-joy-con-controller-replacement-battery?variant=39372012322919</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/CMS-151135-18S-X8?qs=9vOqFld9vZXAip8uBsd1PA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1064,13 +1085,15 @@
     <col customWidth="1" min="2" max="2" width="10.25"/>
     <col customWidth="1" min="3" max="3" width="18.88"/>
     <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="64.88"/>
+    <col customWidth="1" min="6" max="6" width="84.0"/>
+    <col customWidth="1" min="7" max="7" width="64.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1091,181 +1114,253 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>2.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C3&amp;""' AND B = '""&amp;D3&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D")</f>
         <v>https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D</v>
       </c>
+      <c r="G3" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F3, ""/""), 1, 4)"),"81-GRM188Z71A475ME5D")</f>
+        <v>81-GRM188Z71A475ME5D</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>1.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C4&amp;""' AND B = '""&amp;D4&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D")</f>
         <v>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</v>
       </c>
+      <c r="G4" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F4, ""/""), 1, 4)"),"81-GRM188Z71A106KA3D")</f>
+        <v>81-GRM188Z71A106KA3D</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C5&amp;""' AND B = '""&amp;D5&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/80-C0402C220G3HACTU")</f>
         <v>https://www.mouser.com/ProductDetail/80-C0402C220G3HACTU</v>
       </c>
+      <c r="G5" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F5, ""/""), 1, 4)"),"80-C0402C220G3HACTU")</f>
+        <v>80-C0402C220G3HACTU</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>5.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C6&amp;""' AND B = '""&amp;D6&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM155R61E105MA2D")</f>
         <v>https://www.mouser.com/ProductDetail/81-GRM155R61E105MA2D</v>
       </c>
+      <c r="G6" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F6, ""/""), 1, 4)"),"81-GRM155R61E105MA2D")</f>
+        <v>81-GRM155R61E105MA2D</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>1.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C7&amp;""' AND B = '""&amp;D7&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A")</f>
         <v>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</v>
       </c>
+      <c r="G7" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F7, ""/""), 1, 4)"),"581-1206ZC226MAT2A")</f>
+        <v>581-1206ZC226MAT2A</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>3.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C8&amp;""' AND B = '""&amp;D8&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM155R61E225ME1D")</f>
         <v>https://www.mouser.com/ProductDetail/81-GRM155R61E225ME1D</v>
       </c>
+      <c r="G8" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F8, ""/""), 1, 4)"),"81-GRM155R61E225ME1D")</f>
+        <v>81-GRM155R61E225ME1D</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>2.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C9&amp;""' AND B = '""&amp;D9&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/581-0402YC224KAT2A")</f>
         <v>https://www.mouser.com/ProductDetail/581-0402YC224KAT2A</v>
       </c>
+      <c r="G9" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F9, ""/""), 1, 4)"),"581-0402YC224KAT2A")</f>
+        <v>581-0402YC224KAT2A</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C10&amp;""' AND B = '""&amp;D10&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/77-VJ0402Y101MXAPBC")</f>
         <v>https://www.mouser.com/ProductDetail/77-VJ0402Y101MXAPBC</v>
       </c>
+      <c r="G10" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F10, ""/""), 1, 4)"),"77-VJ0402Y101MXAPBC")</f>
+        <v>77-VJ0402Y101MXAPBC</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>10.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C11&amp;""' AND B = '""&amp;D11&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/80-C0402C104M4R")</f>
         <v>https://www.mouser.com/ProductDetail/80-C0402C104M4R</v>
       </c>
+      <c r="G11" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F11, ""/""), 1, 4)"),"80-C0402C104M4R")</f>
+        <v>80-C0402C104M4R</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3">
         <v>3.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C12&amp;""' AND B = '""&amp;D12&amp;""' LIMIT 1"", 0)"),"")</f>
@@ -1274,88 +1369,116 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
         <v>1.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C13&amp;""' AND B = '""&amp;D13&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/667-ERB-RG2R50V")</f>
         <v>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</v>
       </c>
+      <c r="G13" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F13, ""/""), 1, 4)"),"667-ERB-RG2R50V")</f>
+        <v>667-ERB-RG2R50V</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
         <v>1.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C14&amp;""' AND B = '""&amp;D14&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1")</f>
         <v>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</v>
       </c>
+      <c r="G14" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F14, ""/""), 1, 4)"),"594-MFU0603FF01000P1")</f>
+        <v>594-MFU0603FF01000P1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>1.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C15&amp;""' AND B = '""&amp;D15&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT")</f>
         <v>https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT</v>
       </c>
+      <c r="G15" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F15, ""/""), 1, 4)"),"579-MCP1319MT33AE-OT")</f>
+        <v>579-MCP1319MT33AE-OT</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>1.0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C16&amp;""' AND B = '""&amp;D16&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4")</f>
         <v>https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4</v>
       </c>
+      <c r="G16" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F16, ""/""), 1, 4)"),"595-74AHCT1G02DCKRG4")</f>
+        <v>595-74AHCT1G02DCKRG4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <v>1.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C17&amp;""' AND B = '""&amp;D17&amp;""' LIMIT 1"", 0)"),"")</f>
@@ -1364,16 +1487,16 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3">
         <v>1.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C18&amp;""' AND B = '""&amp;D18&amp;""' LIMIT 1"", 0)"),"")</f>
@@ -1382,430 +1505,591 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
         <v>1.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C19&amp;""' AND B = '""&amp;D19&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/798-FH3328S0.5SH10")</f>
         <v>https://www.mouser.com/ProductDetail/798-FH3328S0.5SH10</v>
       </c>
+      <c r="G19" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F19, ""/""), 1, 4)"),"798-FH3328S0.5SH10")</f>
+        <v>798-FH3328S0.5SH10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
         <v>1.0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C20&amp;""' AND B = '""&amp;D20&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/538-78171-0002")</f>
         <v>https://www.mouser.com/ProductDetail/538-78171-0002</v>
       </c>
+      <c r="G20" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F20, ""/""), 1, 4)"),"538-78171-0002")</f>
+        <v>538-78171-0002</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
         <v>1.0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C21&amp;""' AND B = '""&amp;D21&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/640-USB4105-GF-A")</f>
         <v>https://www.mouser.com/ProductDetail/640-USB4105-GF-A</v>
       </c>
+      <c r="G21" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F21, ""/""), 1, 4)"),"640-USB4105-GF-A")</f>
+        <v>640-USB4105-GF-A</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3">
         <v>1.0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C22&amp;""' AND B = '""&amp;D22&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N")</f>
         <v>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</v>
       </c>
+      <c r="G22" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F22, ""/""), 1, 4)"),"810-VLS3012HBX2R2M-N")</f>
+        <v>810-VLS3012HBX2R2M-N</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3">
         <v>1.0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C23&amp;""' AND B = '""&amp;D23&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/621-DMP6350SQ-7")</f>
         <v>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</v>
       </c>
+      <c r="G23" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F23, ""/""), 1, 4)"),"621-DMP6350SQ-7")</f>
+        <v>621-DMP6350SQ-7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3">
         <v>1.0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C24&amp;""' AND B = '""&amp;D24&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/863-NTS4409NT1G")</f>
         <v>https://www.mouser.com/ProductDetail/863-NTS4409NT1G</v>
       </c>
+      <c r="G24" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F24, ""/""), 1, 4)"),"863-NTS4409NT1G")</f>
+        <v>863-NTS4409NT1G</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3">
         <v>3.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C25&amp;""' AND B = '""&amp;D25&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-1002GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402FX-1002GLF</v>
       </c>
+      <c r="G25" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F25, ""/""), 1, 4)"),"652-CR0402FX-1002GLF")</f>
+        <v>652-CR0402FX-1002GLF</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>1.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C26&amp;""' AND B = '""&amp;D26&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/667-ERJ-U02J104X")</f>
         <v>https://www.mouser.com/ProductDetail/667-ERJ-U02J104X</v>
       </c>
+      <c r="G26" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F26, ""/""), 1, 4)"),"667-ERJ-U02J104X")</f>
+        <v>667-ERJ-U02J104X</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3">
         <v>3.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C27&amp;""' AND B = '""&amp;D27&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402AJW-101GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402AJW-101GLF</v>
       </c>
+      <c r="G27" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F27, ""/""), 1, 4)"),"652-CR0402AJW-101GLF")</f>
+        <v>652-CR0402AJW-101GLF</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>1.0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C28&amp;""' AND B = '""&amp;D28&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-1502GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402FX-1502GLF</v>
       </c>
+      <c r="G28" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F28, ""/""), 1, 4)"),"652-CR0402FX-1502GLF")</f>
+        <v>652-CR0402FX-1502GLF</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3">
         <v>1.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C29&amp;""' AND B = '""&amp;D29&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-3301GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402FX-3301GLF</v>
       </c>
+      <c r="G29" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F29, ""/""), 1, 4)"),"652-CR0402FX-3301GLF")</f>
+        <v>652-CR0402FX-3301GLF</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3">
         <v>1.0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C30&amp;""' AND B = '""&amp;D30&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/71-CRCW0402430KFKEDC")</f>
         <v>https://www.mouser.com/ProductDetail/71-CRCW0402430KFKEDC</v>
       </c>
+      <c r="G30" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F30, ""/""), 1, 4)"),"71-CRCW0402430KFKEDC")</f>
+        <v>71-CRCW0402430KFKEDC</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3">
         <v>1.0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C31&amp;""' AND B = '""&amp;D31&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-2002GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402FX-2002GLF</v>
       </c>
+      <c r="G31" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F31, ""/""), 1, 4)"),"652-CR0402FX-2002GLF")</f>
+        <v>652-CR0402FX-2002GLF</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3">
         <v>1.0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C32&amp;""' AND B = '""&amp;D32&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-4702GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402FX-4702GLF</v>
       </c>
+      <c r="G32" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F32, ""/""), 1, 4)"),"652-CR0402FX-4702GLF")</f>
+        <v>652-CR0402FX-4702GLF</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3">
         <v>2.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C33&amp;""' AND B = '""&amp;D33&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402JW-562GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402JW-562GLF</v>
       </c>
+      <c r="G33" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F33, ""/""), 1, 4)"),"652-CR0402JW-562GLF")</f>
+        <v>652-CR0402JW-562GLF</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3">
         <v>1.0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F34" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C34&amp;""' AND B = '""&amp;D34&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402-JW-204GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402-JW-204GLF</v>
       </c>
+      <c r="G34" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F34, ""/""), 1, 4)"),"652-CR0402-JW-204GLF")</f>
+        <v>652-CR0402-JW-204GLF</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3">
         <v>2.0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C35&amp;""' AND B = '""&amp;D35&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/71-CRCW0402-1.0K-E3")</f>
         <v>https://www.mouser.com/ProductDetail/71-CRCW0402-1.0K-E3</v>
       </c>
+      <c r="G35" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F35, ""/""), 1, 4)"),"71-CRCW0402-1.0K-E3")</f>
+        <v>71-CRCW0402-1.0K-E3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3">
         <v>1.0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F36" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C36&amp;""' AND B = '""&amp;D36&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/603-RP0402BRD0749K9L")</f>
         <v>https://www.mouser.com/ProductDetail/603-RP0402BRD0749K9L</v>
       </c>
+      <c r="G36" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F36, ""/""), 1, 4)"),"603-RP0402BRD0749K9L")</f>
+        <v>603-RP0402BRD0749K9L</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <v>4.0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C37&amp;""' AND B = '""&amp;D37&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402-JW-512GLF")</f>
         <v>https://www.mouser.com/ProductDetail/652-CR0402-JW-512GLF</v>
       </c>
+      <c r="G37" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F37, ""/""), 1, 4)"),"652-CR0402-JW-512GLF")</f>
+        <v>652-CR0402-JW-512GLF</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3">
         <v>1.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C38&amp;""' AND B = '""&amp;D38&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL")</f>
         <v>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</v>
       </c>
+      <c r="G38" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F38, ""/""), 1, 4)"),"603-TC164-JR-07270RL")</f>
+        <v>603-TC164-JR-07270RL</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3">
         <v>1.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F39" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C39&amp;""' AND B = '""&amp;D39&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-SKRTLA")</f>
         <v>https://www.mouser.com/ProductDetail/688-SKRTLA</v>
       </c>
+      <c r="G39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F39, ""/""), 1, 4)"),"688-SKRTLA")</f>
+        <v>688-SKRTLA</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3">
         <v>8.0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F40" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C40&amp;""' AND B = '""&amp;D40&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-SKRRAA")</f>
         <v>https://www.mouser.com/ProductDetail/688-SKRRAA</v>
       </c>
+      <c r="G40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F40, ""/""), 1, 4)"),"688-SKRRAA")</f>
+        <v>688-SKRRAA</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3">
         <v>1.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C41&amp;""' AND B = '""&amp;D41&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR")</f>
         <v>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</v>
       </c>
+      <c r="G41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F41, ""/""), 1, 4)"),"595-TLV803EB33VDBZR")</f>
+        <v>595-TLV803EB33VDBZR</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3">
         <v>1.0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C42&amp;""' AND B = '""&amp;D42&amp;""' LIMIT 1"", 0)"),"")</f>
@@ -1814,16 +2098,16 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3">
         <v>1.0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F43" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C43&amp;""' AND B = '""&amp;D43&amp;""' LIMIT 1"", 0)"),"")</f>
@@ -1832,181 +2116,243 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B44" s="3">
         <v>1.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F44" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C44&amp;""' AND B = '""&amp;D44&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-BQ24072TRGTR")</f>
         <v>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</v>
       </c>
+      <c r="G44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F44, ""/""), 1, 4)"),"595-BQ24072TRGTR")</f>
+        <v>595-BQ24072TRGTR</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B45" s="3">
         <v>1.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F45" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C45&amp;""' AND B = '""&amp;D45&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/700-MAX16054AZTT")</f>
         <v>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</v>
       </c>
+      <c r="G45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F45, ""/""), 1, 4)"),"700-MAX16054AZTT")</f>
+        <v>700-MAX16054AZTT</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3">
         <v>1.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F46" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C46&amp;""' AND B = '""&amp;D46&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT")</f>
         <v>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT</v>
       </c>
+      <c r="G46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F46, ""/""), 1, 5)"),"MCP1799T-3302H-TT")</f>
+        <v>MCP1799T-3302H-TT</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3">
         <v>1.0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F47" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C47&amp;""' AND B = '""&amp;D47&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TPS61202DSCR")</f>
         <v>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</v>
       </c>
+      <c r="G47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F47, ""/""), 1, 4)"),"595-TPS61202DSCR")</f>
+        <v>595-TPS61202DSCR</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3">
         <v>1.0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C48&amp;""' AND B = '""&amp;D48&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB")</f>
         <v>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</v>
       </c>
+      <c r="G48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F48, ""/""), 1, 4)"),"926-LM4875MM-NOPB")</f>
+        <v>926-LM4875MM-NOPB</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3">
         <v>1.0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F49" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C49&amp;""' AND B = '""&amp;D49&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR")</f>
         <v>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</v>
       </c>
+      <c r="G49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F49, ""/""), 1, 4)"),"595-TLV3201AIDBVR")</f>
+        <v>595-TLV3201AIDBVR</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3">
         <v>1.0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F50" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C50&amp;""' AND B = '""&amp;D50&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-RK08H113003Q")</f>
         <v>https://www.mouser.com/ProductDetail/688-RK08H113003Q</v>
       </c>
+      <c r="G50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F50, ""/""), 1, 4)"),"688-RK08H113003Q")</f>
+        <v>688-RK08H113003Q</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3">
         <v>1.0</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F51, ""/""), 1, 4)"),"732-CG838868MTJHPA")</f>
+        <v>732-CG838868MTJHPA</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3">
         <v>1.0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C52&amp;""' AND B = '""&amp;D52&amp;""' LIMIT 1"", 0)"),"https://www.ifixit.com/products/nintendo-switch-joy-con-controller-replacement-battery?variant=39372012322919")</f>
         <v>https://www.ifixit.com/products/nintendo-switch-joy-con-controller-replacement-battery?variant=39372012322919</v>
       </c>
+      <c r="H52" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B53" s="3">
         <v>1.0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C53&amp;""' AND B = '""&amp;D53&amp;""' LIMIT 1"", 0)"),"https://www.digikey.com/en/products/detail/cui-devices/CMS-151135-078S-67/9561104")</f>
-        <v>https://www.digikey.com/en/products/detail/cui-devices/CMS-151135-078S-67/9561104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C53&amp;""' AND B = '""&amp;D53&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/CUI-Devices/CMS-151135-18S-X8?qs=9vOqFld9vZXAip8uBsd1PA%3D%3D")</f>
+        <v>https://www.mouser.com/ProductDetail/CUI-Devices/CMS-151135-18S-X8?qs=9vOqFld9vZXAip8uBsd1PA%3D%3D</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2388,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
@@ -2053,924 +2399,932 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C56" s="13"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="23"/>
+      <c r="A87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="23"/>
@@ -3096,7 +3450,8 @@
     <hyperlink r:id="rId75" ref="C84"/>
     <hyperlink r:id="rId76" ref="C85"/>
     <hyperlink r:id="rId77" ref="C86"/>
+    <hyperlink r:id="rId78" ref="C87"/>
   </hyperlinks>
-  <drawing r:id="rId78"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="x4x5" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="PartsDB" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="02" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="x4x501" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="PartsDB" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">x4x5!$A$2:$F$53</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'02'!$A$2:$F$53</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">x4x501!$A$2:$F$53</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="229">
   <si>
     <t>Tad Boy Color BOM for board revisions X4 and X5, Revised 7/11/2024</t>
   </si>
@@ -64,349 +66,355 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>C2,C28,C30</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>C20,C17,C1,C26,C16</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>C22,C25,C18</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C23,C24</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>C6,C3,C4</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C7,C11,C15,C5,C10,C8,C12,C27,C29,C9</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>D3,D2,D1</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2.5A</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>MCP1319MT-33AE_OT</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>74AHCT1G02DCKRG4</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Link port</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Cartridge slot</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>FH33-28S-0.5SH_10_</t>
+  </si>
+  <si>
+    <t>FH3328S05SH10</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>78171-0002</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>GCT_USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>VLS3012HBX-2R2M-N</t>
+  </si>
+  <si>
+    <t>VLS3012</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>DMP6350SQ-7</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>NTS4409NT1G</t>
+  </si>
+  <si>
+    <t>SOT65P220X100-3N</t>
+  </si>
+  <si>
+    <t>R1,R10,R22</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R14,R13,R2</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>430K</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>R3,R17</t>
+  </si>
+  <si>
+    <t>5.6K</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>R5,R9</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>49.9K</t>
+  </si>
+  <si>
+    <t>R7,R8,R11,R16</t>
+  </si>
+  <si>
+    <t>5.1K</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>270x4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>SKRTLAE010</t>
+  </si>
+  <si>
+    <t>SW_SKRTLAE010</t>
+  </si>
+  <si>
+    <t>SW6,SW4,SW8,SW7,SW5,SW2,SW3,SW1</t>
+  </si>
+  <si>
+    <t>SKRRAAE010</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>CGB CPU</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>CGB RAM</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>VQFN-16</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>MAX16054AZT+T</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>MCP1799T-3302H_TT</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>TPS61202DSC</t>
+  </si>
+  <si>
+    <t>WSON-10</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>LM4875MM_NOPB</t>
+  </si>
+  <si>
+    <t>VSSOP-8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>RK08H113003Q</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>732-CG838868MTJHPA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/732-CG838868MTJHPA</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Joy Con battery</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>CMS-151135-18S-X8</t>
+  </si>
+  <si>
+    <t>Tad Boy Color BOM for board revisions X4, X5, and 01, Revised 7/11/2024</t>
+  </si>
+  <si>
     <t>C2,C28</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>C20,C17,C1,C26,C16</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>C22,C25,C18</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C23,C24</t>
-  </si>
-  <si>
-    <t>0.22uF</t>
-  </si>
-  <si>
-    <t>C6,C3,C4</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C7,C11,C15,C5,C10,C8,C12,C27,C29,C9</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>D3,D2,D1</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>2.5A</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>MCP1319MT-33AE_OT</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>74AHCT1G02DCKRG4</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Link port</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Cartridge slot</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>FH33-28S-0.5SH_10_</t>
-  </si>
-  <si>
-    <t>FH3328S05SH10</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>78171-0002</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>USB4105-GF-A</t>
-  </si>
-  <si>
-    <t>GCT_USB4105-GF-A</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>VLS3012HBX-2R2M-N</t>
-  </si>
-  <si>
-    <t>VLS3012</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>DMP6350SQ-7</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>NTS4409NT1G</t>
-  </si>
-  <si>
-    <t>SOT65P220X100-3N</t>
-  </si>
-  <si>
-    <t>R1,R10,R22</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R14,R13,R2</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>15K</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>3.3K</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>430K</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>R3,R17</t>
-  </si>
-  <si>
-    <t>5.6K</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>R5,R9</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>49.9K</t>
-  </si>
-  <si>
-    <t>R7,R8,R11,R16</t>
-  </si>
-  <si>
-    <t>5.1K</t>
-  </si>
-  <si>
-    <t>RN1</t>
-  </si>
-  <si>
-    <t>270x4</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>SKRTLAE010</t>
-  </si>
-  <si>
-    <t>SW_SKRTLAE010</t>
-  </si>
-  <si>
-    <t>SW6,SW4,SW8,SW7,SW5,SW2,SW3,SW1</t>
-  </si>
-  <si>
-    <t>SKRRAAE010</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>CGB CPU</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>CGB RAM</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>VQFN-16</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>MAX16054AZT+T</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>MCP1799T-3302H_TT</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>TPS61202DSC</t>
-  </si>
-  <si>
-    <t>WSON-10</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>LM4875MM_NOPB</t>
-  </si>
-  <si>
-    <t>VSSOP-8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>RK08H113003Q</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>732-CG838868MTJHPA</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/732-CG838868MTJHPA</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Joy Con battery</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>CMS-151135-18S-X8</t>
   </si>
   <si>
     <t>Value</t>
@@ -874,6 +882,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2381,6 +2393,1306 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="33.13"/>
+    <col customWidth="1" min="2" max="2" width="10.25"/>
+    <col customWidth="1" min="3" max="3" width="18.88"/>
+    <col customWidth="1" min="4" max="4" width="17.13"/>
+    <col customWidth="1" min="6" max="6" width="84.0"/>
+    <col customWidth="1" min="7" max="7" width="64.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C3&amp;""' AND B = '""&amp;D3&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D")</f>
+        <v>https://www.mouser.com/ProductDetail/81-GRM188Z71A475ME5D</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F3, ""/""), 1, 4)"),"81-GRM188Z71A475ME5D")</f>
+        <v>81-GRM188Z71A475ME5D</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C4&amp;""' AND B = '""&amp;D4&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D")</f>
+        <v>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F4, ""/""), 1, 4)"),"81-GRM188Z71A106KA3D")</f>
+        <v>81-GRM188Z71A106KA3D</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C5&amp;""' AND B = '""&amp;D5&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/80-C0402C220G3HACTU")</f>
+        <v>https://www.mouser.com/ProductDetail/80-C0402C220G3HACTU</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F5, ""/""), 1, 4)"),"80-C0402C220G3HACTU")</f>
+        <v>80-C0402C220G3HACTU</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C6&amp;""' AND B = '""&amp;D6&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM155R61E105MA2D")</f>
+        <v>https://www.mouser.com/ProductDetail/81-GRM155R61E105MA2D</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F6, ""/""), 1, 4)"),"81-GRM155R61E105MA2D")</f>
+        <v>81-GRM155R61E105MA2D</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C7&amp;""' AND B = '""&amp;D7&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A")</f>
+        <v>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F7, ""/""), 1, 4)"),"581-1206ZC226MAT2A")</f>
+        <v>581-1206ZC226MAT2A</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C8&amp;""' AND B = '""&amp;D8&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/81-GRM155R61E225ME1D")</f>
+        <v>https://www.mouser.com/ProductDetail/81-GRM155R61E225ME1D</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F8, ""/""), 1, 4)"),"81-GRM155R61E225ME1D")</f>
+        <v>81-GRM155R61E225ME1D</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C9&amp;""' AND B = '""&amp;D9&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/581-0402YC224KAT2A")</f>
+        <v>https://www.mouser.com/ProductDetail/581-0402YC224KAT2A</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F9, ""/""), 1, 4)"),"581-0402YC224KAT2A")</f>
+        <v>581-0402YC224KAT2A</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C10&amp;""' AND B = '""&amp;D10&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/77-VJ0402Y101MXAPBC")</f>
+        <v>https://www.mouser.com/ProductDetail/77-VJ0402Y101MXAPBC</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F10, ""/""), 1, 4)"),"77-VJ0402Y101MXAPBC")</f>
+        <v>77-VJ0402Y101MXAPBC</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C11&amp;""' AND B = '""&amp;D11&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/80-C0402C104M4R")</f>
+        <v>https://www.mouser.com/ProductDetail/80-C0402C104M4R</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F11, ""/""), 1, 4)"),"80-C0402C104M4R")</f>
+        <v>80-C0402C104M4R</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C12&amp;""' AND B = '""&amp;D12&amp;""' LIMIT 1"", 0)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C13&amp;""' AND B = '""&amp;D13&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/667-ERB-RG2R50V")</f>
+        <v>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F13, ""/""), 1, 4)"),"667-ERB-RG2R50V")</f>
+        <v>667-ERB-RG2R50V</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C14&amp;""' AND B = '""&amp;D14&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1")</f>
+        <v>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F14, ""/""), 1, 4)"),"594-MFU0603FF01000P1")</f>
+        <v>594-MFU0603FF01000P1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C15&amp;""' AND B = '""&amp;D15&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT")</f>
+        <v>https://www.mouser.com/ProductDetail/579-MCP1319MT33AE-OT</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F15, ""/""), 1, 4)"),"579-MCP1319MT33AE-OT")</f>
+        <v>579-MCP1319MT33AE-OT</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C16&amp;""' AND B = '""&amp;D16&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4")</f>
+        <v>https://www.mouser.com/ProductDetail/595-74AHCT1G02DCKRG4</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F16, ""/""), 1, 4)"),"595-74AHCT1G02DCKRG4")</f>
+        <v>595-74AHCT1G02DCKRG4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C17&amp;""' AND B = '""&amp;D17&amp;""' LIMIT 1"", 0)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C18&amp;""' AND B = '""&amp;D18&amp;""' LIMIT 1"", 0)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C19&amp;""' AND B = '""&amp;D19&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/798-FH3328S0.5SH10")</f>
+        <v>https://www.mouser.com/ProductDetail/798-FH3328S0.5SH10</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F19, ""/""), 1, 4)"),"798-FH3328S0.5SH10")</f>
+        <v>798-FH3328S0.5SH10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C20&amp;""' AND B = '""&amp;D20&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/538-78171-0002")</f>
+        <v>https://www.mouser.com/ProductDetail/538-78171-0002</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F20, ""/""), 1, 4)"),"538-78171-0002")</f>
+        <v>538-78171-0002</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C21&amp;""' AND B = '""&amp;D21&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/640-USB4105-GF-A")</f>
+        <v>https://www.mouser.com/ProductDetail/640-USB4105-GF-A</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F21, ""/""), 1, 4)"),"640-USB4105-GF-A")</f>
+        <v>640-USB4105-GF-A</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C22&amp;""' AND B = '""&amp;D22&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N")</f>
+        <v>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</v>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F22, ""/""), 1, 4)"),"810-VLS3012HBX2R2M-N")</f>
+        <v>810-VLS3012HBX2R2M-N</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C23&amp;""' AND B = '""&amp;D23&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/621-DMP6350SQ-7")</f>
+        <v>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F23, ""/""), 1, 4)"),"621-DMP6350SQ-7")</f>
+        <v>621-DMP6350SQ-7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C24&amp;""' AND B = '""&amp;D24&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/863-NTS4409NT1G")</f>
+        <v>https://www.mouser.com/ProductDetail/863-NTS4409NT1G</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F24, ""/""), 1, 4)"),"863-NTS4409NT1G")</f>
+        <v>863-NTS4409NT1G</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C25&amp;""' AND B = '""&amp;D25&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-1002GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402FX-1002GLF</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F25, ""/""), 1, 4)"),"652-CR0402FX-1002GLF")</f>
+        <v>652-CR0402FX-1002GLF</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C26&amp;""' AND B = '""&amp;D26&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/667-ERJ-U02J104X")</f>
+        <v>https://www.mouser.com/ProductDetail/667-ERJ-U02J104X</v>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F26, ""/""), 1, 4)"),"667-ERJ-U02J104X")</f>
+        <v>667-ERJ-U02J104X</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C27&amp;""' AND B = '""&amp;D27&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402AJW-101GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402AJW-101GLF</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F27, ""/""), 1, 4)"),"652-CR0402AJW-101GLF")</f>
+        <v>652-CR0402AJW-101GLF</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C28&amp;""' AND B = '""&amp;D28&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-1502GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402FX-1502GLF</v>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F28, ""/""), 1, 4)"),"652-CR0402FX-1502GLF")</f>
+        <v>652-CR0402FX-1502GLF</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C29&amp;""' AND B = '""&amp;D29&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-3301GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402FX-3301GLF</v>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F29, ""/""), 1, 4)"),"652-CR0402FX-3301GLF")</f>
+        <v>652-CR0402FX-3301GLF</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C30&amp;""' AND B = '""&amp;D30&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/71-CRCW0402430KFKEDC")</f>
+        <v>https://www.mouser.com/ProductDetail/71-CRCW0402430KFKEDC</v>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F30, ""/""), 1, 4)"),"71-CRCW0402430KFKEDC")</f>
+        <v>71-CRCW0402430KFKEDC</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C31&amp;""' AND B = '""&amp;D31&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-2002GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402FX-2002GLF</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F31, ""/""), 1, 4)"),"652-CR0402FX-2002GLF")</f>
+        <v>652-CR0402FX-2002GLF</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C32&amp;""' AND B = '""&amp;D32&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402FX-4702GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402FX-4702GLF</v>
+      </c>
+      <c r="G32" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F32, ""/""), 1, 4)"),"652-CR0402FX-4702GLF")</f>
+        <v>652-CR0402FX-4702GLF</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C33&amp;""' AND B = '""&amp;D33&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402JW-562GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402JW-562GLF</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F33, ""/""), 1, 4)"),"652-CR0402JW-562GLF")</f>
+        <v>652-CR0402JW-562GLF</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C34&amp;""' AND B = '""&amp;D34&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402-JW-204GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402-JW-204GLF</v>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F34, ""/""), 1, 4)"),"652-CR0402-JW-204GLF")</f>
+        <v>652-CR0402-JW-204GLF</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C35&amp;""' AND B = '""&amp;D35&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/71-CRCW0402-1.0K-E3")</f>
+        <v>https://www.mouser.com/ProductDetail/71-CRCW0402-1.0K-E3</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F35, ""/""), 1, 4)"),"71-CRCW0402-1.0K-E3")</f>
+        <v>71-CRCW0402-1.0K-E3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C36&amp;""' AND B = '""&amp;D36&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/603-RP0402BRD0749K9L")</f>
+        <v>https://www.mouser.com/ProductDetail/603-RP0402BRD0749K9L</v>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F36, ""/""), 1, 4)"),"603-RP0402BRD0749K9L")</f>
+        <v>603-RP0402BRD0749K9L</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C37&amp;""' AND B = '""&amp;D37&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/652-CR0402-JW-512GLF")</f>
+        <v>https://www.mouser.com/ProductDetail/652-CR0402-JW-512GLF</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F37, ""/""), 1, 4)"),"652-CR0402-JW-512GLF")</f>
+        <v>652-CR0402-JW-512GLF</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C38&amp;""' AND B = '""&amp;D38&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL")</f>
+        <v>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F38, ""/""), 1, 4)"),"603-TC164-JR-07270RL")</f>
+        <v>603-TC164-JR-07270RL</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C39&amp;""' AND B = '""&amp;D39&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-SKRTLA")</f>
+        <v>https://www.mouser.com/ProductDetail/688-SKRTLA</v>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F39, ""/""), 1, 4)"),"688-SKRTLA")</f>
+        <v>688-SKRTLA</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C40&amp;""' AND B = '""&amp;D40&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-SKRRAA")</f>
+        <v>https://www.mouser.com/ProductDetail/688-SKRRAA</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F40, ""/""), 1, 4)"),"688-SKRRAA")</f>
+        <v>688-SKRRAA</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C41&amp;""' AND B = '""&amp;D41&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR")</f>
+        <v>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F41, ""/""), 1, 4)"),"595-TLV803EB33VDBZR")</f>
+        <v>595-TLV803EB33VDBZR</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C42&amp;""' AND B = '""&amp;D42&amp;""' LIMIT 1"", 0)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C43&amp;""' AND B = '""&amp;D43&amp;""' LIMIT 1"", 0)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C44&amp;""' AND B = '""&amp;D44&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-BQ24072TRGTR")</f>
+        <v>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F44, ""/""), 1, 4)"),"595-BQ24072TRGTR")</f>
+        <v>595-BQ24072TRGTR</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C45&amp;""' AND B = '""&amp;D45&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/700-MAX16054AZTT")</f>
+        <v>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</v>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F45, ""/""), 1, 4)"),"700-MAX16054AZTT")</f>
+        <v>700-MAX16054AZTT</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C46&amp;""' AND B = '""&amp;D46&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT")</f>
+        <v>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP1799T-3302H-TT</v>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F46, ""/""), 1, 5)"),"MCP1799T-3302H-TT")</f>
+        <v>MCP1799T-3302H-TT</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C47&amp;""' AND B = '""&amp;D47&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TPS61202DSCR")</f>
+        <v>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</v>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F47, ""/""), 1, 4)"),"595-TPS61202DSCR")</f>
+        <v>595-TPS61202DSCR</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C48&amp;""' AND B = '""&amp;D48&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB")</f>
+        <v>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</v>
+      </c>
+      <c r="G48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F48, ""/""), 1, 4)"),"926-LM4875MM-NOPB")</f>
+        <v>926-LM4875MM-NOPB</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C49&amp;""' AND B = '""&amp;D49&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR")</f>
+        <v>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</v>
+      </c>
+      <c r="G49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F49, ""/""), 1, 4)"),"595-TLV3201AIDBVR")</f>
+        <v>595-TLV3201AIDBVR</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C50&amp;""' AND B = '""&amp;D50&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/688-RK08H113003Q")</f>
+        <v>https://www.mouser.com/ProductDetail/688-RK08H113003Q</v>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F50, ""/""), 1, 4)"),"688-RK08H113003Q")</f>
+        <v>688-RK08H113003Q</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT(F51, ""/""), 1, 4)"),"732-CG838868MTJHPA")</f>
+        <v>732-CG838868MTJHPA</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C52&amp;""' AND B = '""&amp;D52&amp;""' LIMIT 1"", 0)"),"https://www.ifixit.com/products/nintendo-switch-joy-con-controller-replacement-battery?variant=39372012322919")</f>
+        <v>https://www.ifixit.com/products/nintendo-switch-joy-con-controller-replacement-battery?variant=39372012322919</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY(PartsDB!$A$1:$C$999, ""SELECT C WHERE A = '""&amp;C53&amp;""' AND B = '""&amp;D53&amp;""' LIMIT 1"", 0)"),"https://www.mouser.com/ProductDetail/CUI-Devices/CMS-151135-18S-X8?qs=9vOqFld9vZXAip8uBsd1PA%3D%3D")</f>
+        <v>https://www.mouser.com/ProductDetail/CUI-Devices/CMS-151135-18S-X8?qs=9vOqFld9vZXAip8uBsd1PA%3D%3D</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$2:$F$53">
+    <sortState ref="A2:F53">
+      <sortCondition ref="A2:A53"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F51"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="18.38"/>
     <col customWidth="1" min="2" max="2" width="17.13"/>
     <col customWidth="1" min="3" max="3" width="81.75"/>
@@ -2388,7 +3700,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
@@ -2402,10 +3714,10 @@
         <v>46</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -2416,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -2427,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -2438,7 +3750,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -2449,29 +3761,29 @@
         <v>12</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -2482,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -2493,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2504,18 +3816,18 @@
         <v>12</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -2526,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2546,7 +3858,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2557,18 +3869,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -2591,18 +3903,18 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>46</v>
@@ -2617,18 +3929,18 @@
         <v>56</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -2639,7 +3951,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
@@ -2650,7 +3962,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
@@ -2661,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -2672,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -2683,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
@@ -2694,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -2705,18 +4017,18 @@
         <v>12</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
@@ -2727,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -2738,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -2749,18 +4061,18 @@
         <v>12</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
@@ -2771,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -2782,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -2793,18 +4105,18 @@
         <v>12</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -2815,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -2826,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42">
@@ -2837,7 +4149,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
@@ -2848,18 +4160,18 @@
         <v>96</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -2870,7 +4182,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -2890,7 +4202,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
@@ -2910,7 +4222,7 @@
         <v>107</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
@@ -2921,7 +4233,7 @@
         <v>115</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
@@ -2932,18 +4244,18 @@
         <v>118</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53">
@@ -2954,7 +4266,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54">
@@ -2965,7 +4277,7 @@
         <v>40</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55">
@@ -2976,12 +4288,12 @@
         <v>122</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>46</v>
@@ -2990,24 +4302,24 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59">
@@ -3018,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
@@ -3029,7 +4341,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61">
@@ -3040,7 +4352,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62">
@@ -3053,13 +4365,13 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64">
@@ -3070,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
@@ -3081,7 +4393,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66">
@@ -3092,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67">
@@ -3103,7 +4415,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
@@ -3114,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69">
@@ -3125,7 +4437,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70">
@@ -3136,7 +4448,7 @@
         <v>51</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71">
@@ -3147,7 +4459,7 @@
         <v>53</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -3158,7 +4470,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73">
@@ -3169,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74">
@@ -3180,7 +4492,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75">
@@ -3191,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
@@ -3202,7 +4514,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77">
@@ -3213,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78">
@@ -3224,7 +4536,7 @@
         <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79">
@@ -3235,7 +4547,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -3246,7 +4558,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81">
@@ -3257,7 +4569,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82">
@@ -3268,7 +4580,7 @@
         <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83">
@@ -3279,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84">
@@ -3290,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85">
@@ -3301,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
@@ -3312,7 +4624,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87">
@@ -3323,7 +4635,7 @@
         <v>46</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="229">
   <si>
-    <t>Tad Boy Color BOM for board revisions X4 and X5, Revised 7/11/2024</t>
+    <t>Tad Boy Color BOM for board revisions 02, Revised 9/30/2024</t>
   </si>
   <si>
     <t>Designator(s)</t>
